--- a/Excels/DataTables/Entity.xlsx
+++ b/Excels/DataTables/Entity.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\StarForce\Excels\DataTables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2A49FC-81B2-4266-9809-44A3B35FD52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>#</t>
   </si>
@@ -43,27 +49,100 @@
     <t>资源名称</t>
   </si>
   <si>
+    <t>敌人战机</t>
+  </si>
+  <si>
+    <t>EnemyShip</t>
+  </si>
+  <si>
+    <t>玩家推进器</t>
+  </si>
+  <si>
+    <t>PlayerEngine</t>
+  </si>
+  <si>
+    <t>敌人推进器</t>
+  </si>
+  <si>
+    <t>EnemyEngine</t>
+  </si>
+  <si>
+    <t>默认武器</t>
+  </si>
+  <si>
+    <t>DefaultWeapon</t>
+  </si>
+  <si>
+    <t>默认装甲</t>
+  </si>
+  <si>
+    <t>DefaultArmor</t>
+  </si>
+  <si>
+    <t>玩家子弹</t>
+  </si>
+  <si>
+    <t>PlayerBolt</t>
+  </si>
+  <si>
+    <t>敌人子弹</t>
+  </si>
+  <si>
+    <t>EnemyBolt</t>
+  </si>
+  <si>
+    <t>小行星</t>
+  </si>
+  <si>
+    <t>Asteroid01</t>
+  </si>
+  <si>
+    <t>Asteroid02</t>
+  </si>
+  <si>
+    <t>Asteroid03</t>
+  </si>
+  <si>
+    <t>玩家死亡特效</t>
+  </si>
+  <si>
+    <t>PlayerExplosion</t>
+  </si>
+  <si>
+    <t>敌人死亡特效</t>
+  </si>
+  <si>
+    <t>EnemyExplosion</t>
+  </si>
+  <si>
+    <t>小行星死亡特效</t>
+  </si>
+  <si>
+    <t>AsteroidExplosion</t>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>玩家角色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>MilitaryMale</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -71,58 +150,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -130,22 +158,16 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线 Light"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -154,14 +176,57 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -170,6 +235,15 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -178,13 +252,24 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -193,20 +278,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -220,188 +307,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -411,36 +485,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -466,7 +510,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,6 +545,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -501,11 +569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,152 +595,131 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -675,61 +728,58 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="42">
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -778,7 +828,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -813,7 +863,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -987,25 +1037,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="A6:D18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1021,13 +1076,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1035,13 +1090,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1055,20 +1110,163 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>10000</v>
       </c>
       <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>10001</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>20000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>20001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>30000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>40000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>50000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>50001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>60000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>60001</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>60002</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>70000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>70001</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>70002</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>